--- a/tests/sampling/output.xlsx
+++ b/tests/sampling/output.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\compas.vinz\tests\sampling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ankostis\Work\co2mpas.git\tests\sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31995" windowHeight="14295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="14300"/>
   </bookViews>
   <sheets>
     <sheet name="dice_report" sheetId="3" r:id="rId1"/>
     <sheet name="xlref" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,43 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>Type approval mode</t>
-  </si>
-  <si>
-    <t>start_stop_model score</t>
-  </si>
-  <si>
-    <t>engine_speed_model score</t>
-  </si>
-  <si>
-    <t>engine_coolant_temperature_model score</t>
-  </si>
-  <si>
-    <t>engine_cold_start_speed_model score</t>
-  </si>
-  <si>
-    <t>co2_params score</t>
-  </si>
-  <si>
-    <t>clutch_torque_converter_model score</t>
-  </si>
-  <si>
-    <t>at_model score</t>
-  </si>
-  <si>
-    <t>alternator_model score</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>#summary!B38(L):..(DR):LURD:["df", {"header": [0, 1, 2], "index_col": [0], "skiprows": [4]}]</t>
   </si>
@@ -220,15 +183,6 @@
     <t>automatic</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>TT-TA-WMI-yyyy-nnnn</t>
-  </si>
-  <si>
-    <t>2017/01/05-19:29:24</t>
-  </si>
-  <si>
     <t>vehicle-H</t>
   </si>
   <si>
@@ -244,9 +198,6 @@
     <t>vehicle_family_id</t>
   </si>
   <si>
-    <t>1.4.3.dev2</t>
-  </si>
-  <si>
     <t>fuel_type</t>
   </si>
   <si>
@@ -286,14 +237,50 @@
     <t>Vehicle</t>
   </si>
   <si>
-    <t>Model scores</t>
+    <t>RL-99-BM3-2017-0001</t>
+  </si>
+  <si>
+    <t>1.5.0.dev1</t>
+  </si>
+  <si>
+    <t>2017/01/29-23:42:41</t>
+  </si>
+  <si>
+    <t>TA_mode</t>
+  </si>
+  <si>
+    <t>Model_scores</t>
+  </si>
+  <si>
+    <t>alternator_model</t>
+  </si>
+  <si>
+    <t>at_model</t>
+  </si>
+  <si>
+    <t>clutch_torque_converter_model</t>
+  </si>
+  <si>
+    <t>co2_params</t>
+  </si>
+  <si>
+    <t>engine_cold_start_speed_model</t>
+  </si>
+  <si>
+    <t>engine_coolant_temperature_model</t>
+  </si>
+  <si>
+    <t>engine_speed_model</t>
+  </si>
+  <si>
+    <t>start_stop_model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,14 +332,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -416,7 +395,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -465,11 +444,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -801,114 +775,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="6"/>
+    <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B5" s="9" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B6" s="11">
         <v>-4.1399999999999997</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2">
         <v>997</v>
@@ -916,25 +875,21 @@
       <c r="C9" s="2">
         <v>997</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="b">
         <v>1</v>
@@ -942,117 +897,91 @@
       <c r="C11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B13" s="7">
-        <v>4.5574385036369662</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
-        <v>-0.95444444444444443</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.95</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
-        <v>4.7100106941668276</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.71</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7">
-        <v>2.2135732280587602E-3</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B17" s="7">
-        <v>18.740595244470271</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B18" s="7">
-        <v>0.50736248585266075</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B19" s="7">
-        <v>1.9552810227393309E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C19" s="7">
-        <v>91.363386907515093</v>
-      </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B20" s="7">
-        <v>-0.99388888888888882</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="14"/>
+        <v>-0.99</v>
+      </c>
+      <c r="C20" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:C13">
@@ -1167,18 +1096,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="-4"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="4"/>
-        <color rgb="FFFFC000"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFC000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1193,233 +1110,233 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/tests/sampling/output.xlsx
+++ b/tests/sampling/output.xlsx
@@ -210,9 +210,6 @@
     <t>engine_is_turbo</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2MPAS_deviation </t>
-  </si>
-  <si>
     <t>dice_report</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>start_stop_model</t>
+  </si>
+  <si>
+    <t>CO2MPAS_deviation</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -789,7 +791,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>52</v>
@@ -803,7 +805,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="12"/>
     </row>
@@ -812,7 +814,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="12"/>
     </row>
@@ -821,13 +823,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="b">
         <v>1</v>
@@ -836,7 +838,7 @@
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B6" s="11">
         <v>-4.1399999999999997</v>
@@ -845,7 +847,7 @@
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>52</v>
@@ -900,7 +902,7 @@
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>52</v>
@@ -911,7 +913,7 @@
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="7">
         <v>4.5599999999999996</v>
@@ -920,7 +922,7 @@
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <v>-0.95</v>
@@ -929,7 +931,7 @@
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <v>4.71</v>
@@ -938,7 +940,7 @@
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -947,7 +949,7 @@
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="7">
         <v>18.739999999999998</v>
@@ -956,7 +958,7 @@
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="7">
         <v>0.59</v>
@@ -965,7 +967,7 @@
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="7">
         <v>0.02</v>
@@ -976,7 +978,7 @@
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="7">
         <v>-0.99</v>
@@ -1317,26 +1319,26 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tests/sampling/output.xlsx
+++ b/tests/sampling/output.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\ankostis\Work\co2mpas.git\tests\sampling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\co2mpas.git\tests\sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="35350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="35355"/>
   </bookViews>
   <sheets>
     <sheet name="dice_report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Field</t>
   </si>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,19 +464,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -484,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -492,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -500,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -508,7 +516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -516,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -524,7 +532,7 @@
         <v>-4.1399999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -535,7 +543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -546,7 +554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -557,7 +565,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -568,7 +576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -579,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -590,7 +598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -598,7 +606,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -606,7 +614,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -614,7 +622,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -622,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -630,7 +638,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -638,7 +646,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -649,7 +657,7 @@
         <v>91.36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
